--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>classifier</t>
   </si>
@@ -56,18 +56,73 @@
   </si>
   <si>
     <t>classifier parameters</t>
+  </si>
+  <si>
+    <t>STGCN</t>
+  </si>
+  <si>
+    <t>ntu60</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, learingRate 0.002 BATCH 256 EPOCHES:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(clfAcc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntu60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5 EPOCHES 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(Valloss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(ValLoss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr: 2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5 epoches 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,15 +429,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +490,184 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>5.73</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>classifier</t>
   </si>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr: 2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5 epoches 16</t>
+  </si>
+  <si>
+    <t>CTRGCN</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIASA</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>ad train time (hrs)</t>
   </si>
 </sst>
 </file>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -663,6 +679,60 @@
       </c>
       <c r="L9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>6.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>6.05</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -109,10 +109,6 @@
     <t>CTRGCN</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CIASA</t>
   </si>
   <si>
@@ -120,6 +116,9 @@
   </si>
   <si>
     <t>ad train time (hrs)</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, lr: 0.5, Sigmoid</t>
   </si>
 </sst>
 </file>
@@ -448,7 +447,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -701,7 +700,7 @@
         <v>0.999</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -709,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -720,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>6.05</v>
@@ -732,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>classifier</t>
   </si>
@@ -118,14 +118,20 @@
     <t>ad train time (hrs)</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, lr: 0.5, Sigmoid</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 3FC</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 500</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +146,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,14 +175,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,38 +526,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="12.75">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5.73</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.76349999999999996</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.98909999999999998</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.76019999999999999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.94</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -702,10 +723,17 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11">
+        <v>20.9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.86960000000000004</v>
+      </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
         <v>29</v>
@@ -732,6 +760,92 @@
       </c>
       <c r="G12" t="s">
         <v>27</v>
+      </c>
+      <c r="H12">
+        <v>20.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>5.73</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>5.73</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>classifier</t>
-  </si>
-  <si>
-    <t>dataset</t>
   </si>
   <si>
     <t>attacker</t>
@@ -61,9 +58,6 @@
     <t>STGCN</t>
   </si>
   <si>
-    <t>ntu60</t>
-  </si>
-  <si>
     <t>SMART</t>
   </si>
   <si>
@@ -71,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, learingRate 0.002 BATCH 256 EPOCHES:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ntu60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5 EPOCHES 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,7 +106,13 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 500</t>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 500</t>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 100</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC</t>
   </si>
 </sst>
 </file>
@@ -465,27 +453,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -522,330 +510,396 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="12.75">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="12.75">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.7681</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="12.75">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.7681</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>5.73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5.73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
-        <v>5.73</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.76349999999999996</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.76019999999999999</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="12.75">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.86219999999999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="12.75">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C23" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.86219999999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.86529999999999996</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>6.05</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>20.9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.86219999999999997</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>6.05</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.86219999999999997</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.86360000000000003</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>6.05</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11">
+      <c r="G26">
         <v>20.9</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>6.05</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>20.9</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>5.73</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.7681</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.76719999999999999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>5.73</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.7681</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.76719999999999999</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
+      <c r="K26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>classifier</t>
   </si>
@@ -112,7 +112,25 @@
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 7</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, , bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC, , bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC, bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 6</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L: 25, 2FC, bayesianModelNum 5</t>
   </si>
 </sst>
 </file>
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
@@ -634,12 +652,49 @@
       <c r="G6">
         <v>34.229999999999997</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.76519999999999999</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
         <v>26</v>
       </c>
       <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5.73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -868,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
@@ -893,13 +948,83 @@
       <c r="G26">
         <v>20.9</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>0.79990000000000006</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
         <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>6.05</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>20.9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>6.05</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>20.9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.6895</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C3C25-1708-4B0A-81D2-561784895838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>classifier</t>
   </si>
@@ -61,93 +62,100 @@
     <t>SMART</t>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BayesianEMBATrainer(clfAcc)</t>
+    <t>CTRGCN</t>
+  </si>
+  <si>
+    <t>CIASA</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>ad train time (hrs)</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 3FC</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 500</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 100</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 7</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, , bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC, , bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 6</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5 EPOCHES 30</t>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BayesianEMBATrainer(Valloss)</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L: 25, 2FC, bayesianModelNum 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BayesianEMBATrainer(ValLoss)</t>
+    <t>CIASA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr: 2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5 epoches 16</t>
-  </si>
-  <si>
-    <t>CTRGCN</t>
-  </si>
-  <si>
-    <t>CIASA</t>
-  </si>
-  <si>
-    <t>BEAT</t>
-  </si>
-  <si>
-    <t>ad train time (hrs)</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 3FC</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 500</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005 iteratoin 100</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 7</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, , bayesianModelNum 5</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC, , bayesianModelNum 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1(ep6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.5(ep23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC, bayesianModelNum 5</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 5</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 6</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L: 25, 2FC, bayesianModelNum 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, lr: 0.005, L: 15, 2FC, bayesianModelNum 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,11 +193,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -470,24 +481,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="46.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="46.25" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -546,7 +557,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>34.229999999999997</v>
@@ -556,10 +567,10 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="12.75">
@@ -567,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5.73</v>
@@ -579,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>34.229999999999997</v>
@@ -589,10 +600,10 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
@@ -612,7 +623,7 @@
         <v>0.9284</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>34.229999999999997</v>
@@ -624,10 +635,10 @@
         <v>0.60419999999999996</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
@@ -647,7 +658,7 @@
         <v>0.9284</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>34.229999999999997</v>
@@ -657,10 +668,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1">
@@ -680,7 +691,7 @@
         <v>0.9284</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>34.229999999999997</v>
@@ -692,143 +703,142 @@
         <v>0.46710000000000002</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
       <c r="D17" s="1">
         <v>0.86219999999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.95</v>
+        <v>0.88119999999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H17" s="1">
-        <v>0.86309999999999998</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>0.53800000000000003</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1.5</v>
       </c>
       <c r="D18" s="1">
         <v>0.86219999999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.95</v>
+        <v>0.97360000000000002</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H18" s="1">
-        <v>0.86529999999999996</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.55500000000000005</v>
-      </c>
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
       <c r="D19" s="1">
         <v>0.86219999999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.95</v>
+        <v>0.88119999999999998</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H19" s="1">
-        <v>0.86250000000000004</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>0.41</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="J19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
       </c>
       <c r="D20" s="1">
         <v>0.86219999999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.95</v>
+        <v>0.97360000000000002</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H20" s="1">
-        <v>0.86360000000000003</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.46300000000000002</v>
-      </c>
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="12.75">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -843,7 +853,7 @@
         <v>0.999</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2">
         <v>20.9</v>
@@ -853,18 +863,18 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="12.75">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>6.05</v>
@@ -876,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2">
         <v>20.9</v>
@@ -885,15 +895,15 @@
         <v>0.80630000000000002</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -908,7 +918,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>20.9</v>
@@ -920,15 +930,15 @@
         <v>0.78239999999999998</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -943,7 +953,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>20.9</v>
@@ -953,15 +963,15 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -976,7 +986,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>20.9</v>
@@ -986,15 +996,15 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
         <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1009,7 +1019,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>20.9</v>
@@ -1021,10 +1031,10 @@
         <v>0.6895</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C3C25-1708-4B0A-81D2-561784895838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15BE50-26C4-4CE0-948B-8A14D3EFB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>classifier</t>
   </si>
@@ -138,6 +138,26 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, lr: 0.005, L: 15, 2FC, bayesianModelNum 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntu60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEAT(clfAcc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 5e-3, L: 30, 2FC, bayesianModelNum 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,23 +502,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD20"/>
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="46.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="12.75">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -573,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="12.75">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -709,7 +729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -744,7 +764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -774,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -806,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+    <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -836,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="12.75">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="13.2">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -869,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="12.75">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="13.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -901,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -936,7 +956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -969,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1">
+    <row r="28" spans="1:13" ht="14.25" customHeight="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1035,6 +1055,78 @@
       </c>
       <c r="K28" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>10.34</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>10.34</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="4">
+        <v>72</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15BE50-26C4-4CE0-948B-8A14D3EFB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591F934-F2B7-4B30-945C-574E223CAD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>classifier</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 5e-3, L: 30, 2FC, bayesianModelNum 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -513,7 +521,7 @@
     <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
@@ -729,6 +737,70 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>5.73</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>51.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5.73</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>51.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>13</v>
@@ -856,140 +928,136 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="13.2">
-      <c r="A22" s="2" t="s">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="13.2">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
         <v>6.05</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <v>0.999</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2">
         <v>20.9</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="13.2">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>6.05</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2">
         <v>20.9</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H25" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>6.05</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>20.9</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>6.05</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26">
-        <v>20.9</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1012,14 +1080,16 @@
         <v>20.9</v>
       </c>
       <c r="H27" s="1">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.78239999999999998</v>
+      </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1">
@@ -1045,87 +1115,153 @@
         <v>20.9</v>
       </c>
       <c r="H28" s="1">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>6.05</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>20.9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>6.05</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>20.9</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.80310000000000004</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I30" s="1">
         <v>0.6895</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J30" t="s">
         <v>28</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
         <v>10.34</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E32" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F32" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>72</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I32" s="1">
         <v>0.87409999999999999</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" t="s">
         <v>39</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>10.34</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E33" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F33" s="1">
         <v>0.97719999999999996</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H33" s="4">
         <v>72</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I33" s="1">
         <v>0.87409999999999999</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" t="s">
+      <c r="J33" s="1"/>
+      <c r="K33" t="s">
         <v>39</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M33" t="s">
         <v>40</v>
       </c>
     </row>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591F934-F2B7-4B30-945C-574E223CAD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>classifier</t>
   </si>
@@ -88,9 +87,6 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 2FC</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, bayesianModelNum 7</t>
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, 2FC, , bayesianModelNum 5</t>
@@ -172,18 +168,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,24 +505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="46.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -568,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="13.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -601,7 +597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="13.2">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -666,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
@@ -699,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1">
@@ -734,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -754,7 +750,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>51.5</v>
@@ -766,7 +762,7 @@
         <v>0.71179999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -786,7 +782,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>51.5</v>
@@ -798,10 +794,43 @@
         <v>0.85470000000000002</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>5.73</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -821,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1">
         <v>0.86070000000000002</v>
@@ -833,15 +862,15 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>1.5</v>
@@ -856,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1">
         <v>0.86070000000000002</v>
@@ -866,7 +895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -886,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1">
         <v>0.86370000000000002</v>
@@ -895,15 +924,15 @@
         <v>0.25419999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1.5</v>
@@ -918,22 +947,22 @@
         <v>16</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1">
         <v>0.86370000000000002</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -945,7 +974,7 @@
         <v>0.88119999999999998</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="4">
         <v>16.7</v>
@@ -957,15 +986,15 @@
         <v>0.71819999999999995</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1.5</v>
@@ -977,7 +1006,7 @@
         <v>0.97360000000000002</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="4">
         <v>16.7</v>
@@ -989,10 +1018,10 @@
         <v>0.87339999999999995</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="13.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1019,13 +1048,13 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="13.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1086,13 +1115,13 @@
         <v>0.78239999999999998</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1122,10 +1151,10 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1155,10 +1184,10 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1187,82 +1216,115 @@
         <v>0.6895</v>
       </c>
       <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
         <v>28</v>
       </c>
-      <c r="K30" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>6.05</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>20.9</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>10.34</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>72</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D39">
+        <v>10.34</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="G39" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>10.34</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H39" s="4">
+        <v>72</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" t="s">
         <v>38</v>
       </c>
-      <c r="H32">
-        <v>72</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.87409999999999999</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" t="s">
+      <c r="M39" t="s">
         <v>39</v>
-      </c>
-      <c r="M32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>10.34</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.97719999999999996</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="4">
-        <v>72</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.87409999999999999</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +190,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +207,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,11 +224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -225,9 +237,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,38 +716,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>5.73</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>0.7681</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>0.9284</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
         <v>34.229999999999997</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>0.76449999999999996</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>0.46710000000000002</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -797,36 +815,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>5.73</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>0.7681</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>0.99360000000000004</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5">
         <v>34.229999999999997</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>0.76449999999999996</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -895,35 +913,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>1.5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>0.86219999999999997</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>0.88119999999999998</v>
       </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <v>0.86370000000000002</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <v>0.25419999999999998</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1187,71 +1205,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>6.05</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6">
         <v>0.97409999999999997</v>
       </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="5">
         <v>20.9</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="6">
         <v>0.80310000000000004</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="6">
         <v>0.6895</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>6.05</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="6">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="5">
         <v>20.9</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="6">
         <v>0.80310000000000004</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/results/ntu60.xlsx
+++ b/results/ntu60.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C94683-4F71-4583-AB50-8EC4B861C296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>classifier</t>
   </si>
@@ -141,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ntu60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BEAT(clfAcc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,24 +159,32 @@
   </si>
   <si>
     <t>AT(SMART-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,7 +234,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -242,6 +247,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -523,24 +530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="46.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="46.25" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,7 +775,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>51.5</v>
@@ -800,7 +807,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>51.5</v>
@@ -980,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -992,7 +999,7 @@
         <v>0.88119999999999998</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4">
         <v>16.7</v>
@@ -1024,7 +1031,7 @@
         <v>0.97360000000000002</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="4">
         <v>16.7</v>
@@ -1039,140 +1046,136 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="12.75">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="12.75">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
         <v>6.05</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E26" s="3">
         <v>0.999</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>20.9</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H26" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" ht="12.75">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="12.75">
+      <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <v>6.05</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G27" s="2">
         <v>20.9</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H27" s="3">
         <v>0.80630000000000002</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>6.05</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <v>20.9</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>6.05</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28">
-        <v>20.9</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1195,49 +1198,82 @@
         <v>20.9</v>
       </c>
       <c r="H29" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>6.05</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>20.9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>6.05</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>20.9</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.78269999999999995</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I31" s="1"/>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6.05</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.6895</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1" ht="14.25" customHeight="1">
@@ -1245,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5">
         <v>6.05</v>
@@ -1254,7 +1290,7 @@
         <v>0.80630000000000002</v>
       </c>
       <c r="E32" s="6">
-        <v>1</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>16</v>
@@ -1265,7 +1301,9 @@
       <c r="H32" s="6">
         <v>0.80310000000000004</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>0.6895</v>
+      </c>
       <c r="J32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1273,76 +1311,364 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6.05</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="12.75">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="8" customFormat="1" ht="12.75">
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="8" customFormat="1" ht="12.75">
+      <c r="A38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="8" customFormat="1" ht="12.75">
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>10.34</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
+      <c r="G42">
+        <v>72</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="J42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
         <v>10.34</v>
       </c>
-      <c r="E38" s="1">
+      <c r="D43" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="F38" s="1">
+      <c r="E43" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="4">
+        <v>72</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="J43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>10.34</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E44" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>240</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="J44" t="s">
         <v>37</v>
       </c>
-      <c r="H38">
-        <v>72</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.87409999999999999</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" t="s">
+      <c r="L44" t="s">
         <v>38</v>
       </c>
-      <c r="M38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="D39">
+      <c r="C45">
         <v>10.34</v>
       </c>
-      <c r="E39" s="1">
+      <c r="D45" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="F39" s="1">
+      <c r="E45" s="1">
         <v>0.97719999999999996</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="4">
+        <v>240</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="4">
-        <v>72</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.87409999999999999</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" t="s">
+      <c r="L45" t="s">
         <v>38</v>
       </c>
-      <c r="M39" t="s">
-        <v>39</v>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>10.34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>23.9</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>10.34</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
